--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\eclipse\IPM\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC6EE0A-C9BF-45F7-B5C9-9D5B32874F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86DC359-522C-44F4-8E97-C9DCB8B70AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceName" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
+    <sheet name="AllInOne" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="140">
   <si>
     <t>Sl.no</t>
   </si>
@@ -72,42 +73,15 @@
     <t>200</t>
   </si>
   <si>
-    <t>Lthreshold</t>
-  </si>
-  <si>
-    <t>Uthreshold</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>VcpuValue</t>
-  </si>
-  <si>
-    <t>Ramvalue</t>
-  </si>
-  <si>
-    <t>DiskSizeValue</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Retention</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -150,24 +124,15 @@
     <t>2</t>
   </si>
   <si>
-    <t>GivenOption</t>
-  </si>
-  <si>
     <t>custom</t>
   </si>
   <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
     <t xml:space="preserve">VCPUS 8 cores, RAM 8 GiB , Disk 50 Gib </t>
   </si>
   <si>
     <t>VMBackUpState</t>
   </si>
   <si>
-    <t>BackUpFrequency</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -193,6 +158,306 @@
   </si>
   <si>
     <t>SIEM Server</t>
+  </si>
+  <si>
+    <t>Linux CLI</t>
+  </si>
+  <si>
+    <t>Ubuntu 22.04 LTS (CLI)</t>
+  </si>
+  <si>
+    <t>Windows Server</t>
+  </si>
+  <si>
+    <t>Test_Master_Copy_MC</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>test10,test</t>
+  </si>
+  <si>
+    <t>Storage_Windows_Sep17</t>
+  </si>
+  <si>
+    <t>Windows VDI</t>
+  </si>
+  <si>
+    <t>WINDOWS_10_PRO_MC_N</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Saved templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VCPUS 4 cores, RAM 4 GiB , Disk 56 Gib </t>
+  </si>
+  <si>
+    <t>test,test10</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>6 weeks</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>GivenOption(thisWillActiveOnlyWhenScalingTypeIsGivenAsNull)</t>
+  </si>
+  <si>
+    <t>TemplateName(thisWillActiveOnlyWhenScalingTypeIsGivenAsNull)</t>
+  </si>
+  <si>
+    <t>Linux VDI</t>
+  </si>
+  <si>
+    <t>Rocky Linux 9.2 (GUI)</t>
+  </si>
+  <si>
+    <t>StoragePath(ThisIsADummyData)</t>
+  </si>
+  <si>
+    <t>Lthreshold(UsedWhenScalingTypeIsNotAsnull)</t>
+  </si>
+  <si>
+    <t>Uthreshold(UsedWhenScalingTypeIsNotAsnull)</t>
+  </si>
+  <si>
+    <t>VcpuValue(UsedWhenScalingTypeIsNotSetAsNullAndVMSIsSelectedAsCustom)</t>
+  </si>
+  <si>
+    <t>Ramvalue(UsedWhenScalingTypeIsNotSetAsNullAndVMSIsSelectedAsCustom)</t>
+  </si>
+  <si>
+    <t>DiskSizeValue(UsedWhenScalingTypeIsNotSetAsNullAndVMSIsSelectedAsCustom)</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>LoadBalanceValue(UsedOnlywhenHorizontalScalingIsSelected)</t>
+  </si>
+  <si>
+    <t>TemplateValue(NotUsedWhenVerticalScalingIsSelected)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>MaxGroupCount(UsedOnlyWhenHorizontalScalingIsSelected)</t>
+  </si>
+  <si>
+    <t>BackUpFrequency(UsedOnlyVMBackupIsSetToYes)</t>
+  </si>
+  <si>
+    <t>Retention(UsedOnlyVMBackupIsSetToYes)</t>
+  </si>
+  <si>
+    <t>karthik=user</t>
+  </si>
+  <si>
+    <t>TestAT</t>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>October_14_STorage_Linux</t>
+  </si>
+  <si>
+    <t>Ubuntu 22.04 LTS (CLI) - HA Proxy</t>
+  </si>
+  <si>
+    <t>TestAT,TestAT2</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>12 months</t>
+  </si>
+  <si>
+    <t>10.150.37.0 - karthik</t>
+  </si>
+  <si>
+    <t>lead2=admin,lead3=user,Pradeep=user,karthik=admin,lead1=user,lead1=user,test1=admin</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>MySQL DB</t>
+  </si>
+  <si>
+    <t>Asset_Approval</t>
+  </si>
+  <si>
+    <t>Ubuntu 22.04 LTS (CLI) - MySQL</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Testing_Linux_New_Storage</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6 days</t>
+  </si>
+  <si>
+    <t>12 days</t>
+  </si>
+  <si>
+    <t>lead2=admin,lead3=user,Pradeep=user,karthik=admin,lead1=user,test1=admin,lead1=user</t>
+  </si>
+  <si>
+    <t>Postgres DB</t>
+  </si>
+  <si>
+    <t>EC_Windows_VM</t>
+  </si>
+  <si>
+    <t>EC_Test_Linux_Storage_OCT_600</t>
+  </si>
+  <si>
+    <t>Ubuntu22.04 LTS(CLI)-PostgreSQL</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>lead2=admin,karthik=admin,lead1=user,test1=admin</t>
+  </si>
+  <si>
+    <t>TestAT1</t>
+  </si>
+  <si>
+    <t>SFTP Server</t>
+  </si>
+  <si>
+    <t>SIEM_Project</t>
+  </si>
+  <si>
+    <t>Storage_Linux_Oct14</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>4 weeks</t>
+  </si>
+  <si>
+    <t>8 weeks</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>TestAT,TestAT3</t>
+  </si>
+  <si>
+    <t>Web-LAMP</t>
+  </si>
+  <si>
+    <t>EC_Ubuntu_VM</t>
+  </si>
+  <si>
+    <t>Ubuntu 22.04 LTS (CLI) - LAMP(Linux + Apache + MySQL + PHP)</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>10.150.36.0 - teshtshweta</t>
+  </si>
+  <si>
+    <t>3 month</t>
+  </si>
+  <si>
+    <t>Web-LAPP</t>
+  </si>
+  <si>
+    <t>OCT_14_Linux_Storage</t>
+  </si>
+  <si>
+    <t>Ubuntu 22.04 LTS (CLI) - LAPP(Linux + Apache + Postgres + PHP)</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TestAT5,TestAT,TestAT3</t>
+  </si>
+  <si>
+    <t>Web-Wordpress</t>
+  </si>
+  <si>
+    <t>Default_Projects</t>
+  </si>
+  <si>
+    <t>Ubuntu 22.04 LTS (CLI) - WordPress</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.2.0 - </t>
+  </si>
+  <si>
+    <t>TestAT6</t>
   </si>
 </sst>
 </file>
@@ -565,13 +830,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6D384C-D04C-4AF2-8E27-6C6A0D0105A5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -589,10 +857,142 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -603,13 +1003,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1688C-0C26-4DFF-B71F-83B25D02CB03}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -622,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -634,64 +1041,64 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>30</v>
-      </c>
       <c r="Z1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -705,10 +1112,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -717,68 +1124,2329 @@
         <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="R3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AA4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" t="s">
+        <v>18</v>
+      </c>
+      <c r="X9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A629CB-5D60-43E2-9350-568723598546}">
+  <dimension ref="A1:AC14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\eclipse\IPM\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86DC359-522C-44F4-8E97-C9DCB8B70AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB56F1FB-16BF-4915-9B56-3DCD7F6ED444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\eclipse\IPM\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB56F1FB-16BF-4915-9B56-3DCD7F6ED444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8FF1F0-A401-42E8-BDA5-C1C32C2D78A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="144">
   <si>
     <t>Sl.no</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>TestAT6</t>
+  </si>
+  <si>
+    <t>a,b</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>2-4</t>
   </si>
 </sst>
 </file>
@@ -833,7 +845,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1688C-0C26-4DFF-B71F-83B25D02CB03}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AA14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1264,7 @@
         <v>34</v>
       </c>
       <c r="W3" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="X3" t="s">
         <v>16</v>
@@ -1412,13 +1424,13 @@
         <v>99</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="W5" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="X5" t="s">
         <v>16</v>
@@ -1430,7 +1442,7 @@
         <v>31</v>
       </c>
       <c r="AA5" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1468,25 +1480,25 @@
         <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S6" t="s">
         <v>14</v>
@@ -1495,25 +1507,25 @@
         <v>116</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="W6" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="X6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AA6" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1551,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>89</v>

--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\eclipse\IPM\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8FF1F0-A401-42E8-BDA5-C1C32C2D78A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E68246-8097-4677-B8D9-08093B35E284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceName" sheetId="1" r:id="rId1"/>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6D384C-D04C-4AF2-8E27-6C6A0D0105A5}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1688C-0C26-4DFF-B71F-83B25D02CB03}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1711,7 @@
         <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -1794,7 +1794,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -1960,7 +1960,7 @@
         <v>124</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>50</v>
@@ -2043,7 +2043,7 @@
         <v>130</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>50</v>
@@ -2126,7 +2126,7 @@
         <v>136</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>32</v>

--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\eclipse\IPM\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E68246-8097-4677-B8D9-08093B35E284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69166974-BCC7-47F1-8452-97AE7F299F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="147">
   <si>
     <t>Sl.no</t>
   </si>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>2-4</t>
+  </si>
+  <si>
+    <t>Windows Server 2022 (Standard Edition without License)</t>
+  </si>
+  <si>
+    <t>10.150.35.0 - akashTest</t>
+  </si>
+  <si>
+    <t>AssignRemoteUser</t>
   </si>
 </sst>
 </file>
@@ -845,7 +854,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1688C-0C26-4DFF-B71F-83B25D02CB03}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,11 +1035,12 @@
     <col min="2" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
     <col min="23" max="23" width="21.140625" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,19 +1111,22 @@
         <v>17</v>
       </c>
       <c r="X1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1121,19 +1134,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
@@ -1148,10 +1161,10 @@
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>12</v>
@@ -1160,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>27</v>
@@ -1169,34 +1182,37 @@
         <v>13</v>
       </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="X2" t="s">
         <v>16</v>
       </c>
       <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1266,20 +1282,20 @@
       <c r="W3" t="s">
         <v>138</v>
       </c>
-      <c r="X3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1349,20 +1365,20 @@
       <c r="W4" t="s">
         <v>18</v>
       </c>
-      <c r="X4" t="s">
-        <v>16</v>
-      </c>
       <c r="Y4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1432,20 +1448,20 @@
       <c r="W5" t="s">
         <v>138</v>
       </c>
-      <c r="X5" t="s">
-        <v>16</v>
-      </c>
       <c r="Y5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1515,20 +1531,20 @@
       <c r="W6" t="s">
         <v>138</v>
       </c>
-      <c r="X6" t="s">
-        <v>13</v>
-      </c>
       <c r="Y6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="s">
         <v>87</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1598,20 +1614,20 @@
       <c r="W7" t="s">
         <v>86</v>
       </c>
-      <c r="X7" t="s">
-        <v>13</v>
-      </c>
       <c r="Y7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="s">
         <v>87</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1681,20 +1697,20 @@
       <c r="W8" t="s">
         <v>18</v>
       </c>
-      <c r="X8" t="s">
-        <v>13</v>
-      </c>
       <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1764,20 +1780,20 @@
       <c r="W9" t="s">
         <v>18</v>
       </c>
-      <c r="X9" t="s">
-        <v>16</v>
-      </c>
       <c r="Y9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" t="s">
         <v>108</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1847,20 +1863,20 @@
       <c r="W10" t="s">
         <v>18</v>
       </c>
-      <c r="X10" t="s">
-        <v>16</v>
-      </c>
       <c r="Y10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z10" t="s">
         <v>108</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1930,20 +1946,20 @@
       <c r="W11" t="s">
         <v>18</v>
       </c>
-      <c r="X11" t="s">
-        <v>16</v>
-      </c>
       <c r="Y11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z11" t="s">
         <v>108</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2013,20 +2029,20 @@
       <c r="W12" t="s">
         <v>126</v>
       </c>
-      <c r="X12" t="s">
-        <v>16</v>
-      </c>
       <c r="Y12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z12" t="s">
         <v>108</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2096,20 +2112,20 @@
       <c r="W13" t="s">
         <v>18</v>
       </c>
-      <c r="X13" t="s">
-        <v>16</v>
-      </c>
       <c r="Y13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="s">
         <v>108</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2179,16 +2195,16 @@
       <c r="W14" t="s">
         <v>138</v>
       </c>
-      <c r="X14" t="s">
-        <v>16</v>
-      </c>
       <c r="Y14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" t="s">
         <v>108</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>139</v>
       </c>
     </row>

--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\eclipse\IPM\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69166974-BCC7-47F1-8452-97AE7F299F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A3FCC-B460-498E-99E4-7F9AE12361C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceName" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="151">
   <si>
     <t>Sl.no</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>3 days</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Windows Server</t>
   </si>
   <si>
-    <t>Test_Master_Copy_MC</t>
-  </si>
-  <si>
     <t>vertical</t>
   </si>
   <si>
@@ -479,6 +473,24 @@
   </si>
   <si>
     <t>AssignRemoteUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VCPUS 4 cores, RAM 4 GiB , Disk 32 Gib </t>
+  </si>
+  <si>
+    <t>test1,test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>lead2=admin,lesad3=user,Pradesep=user</t>
   </si>
 </sst>
 </file>
@@ -878,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,10 +923,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -922,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,10 +945,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -944,10 +956,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,10 +967,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,10 +978,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -977,10 +989,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,10 +1011,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,10 +1022,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1026,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1688C-0C26-4DFF-B71F-83B25D02CB03}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -1063,67 +1075,67 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>77</v>
-      </c>
       <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
       <c r="W1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1134,25 +1146,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -1161,55 +1173,55 @@
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -1223,22 +1235,22 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -1247,22 +1259,22 @@
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>13</v>
@@ -1271,28 +1283,31 @@
         <v>14</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="X3" t="s">
+        <v>13</v>
       </c>
       <c r="Y3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1306,22 +1321,22 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -1330,10 +1345,10 @@
         <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>11</v>
@@ -1345,37 +1360,40 @@
         <v>13</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="U4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" t="s">
         <v>56</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1389,22 +1407,22 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>11</v>
@@ -1413,10 +1431,10 @@
         <v>12</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>11</v>
@@ -1428,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>13</v>
@@ -1437,28 +1455,31 @@
         <v>14</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="X5" t="s">
+        <v>13</v>
       </c>
       <c r="Y5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1472,22 +1493,22 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>11</v>
@@ -1496,13 +1517,13 @@
         <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>13</v>
@@ -1511,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>13</v>
@@ -1520,28 +1541,31 @@
         <v>14</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s">
+        <v>136</v>
+      </c>
+      <c r="X6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="s">
         <v>138</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1555,22 +1579,22 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
@@ -1579,52 +1603,55 @@
         <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S7" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
         <v>84</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="X7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>87</v>
-      </c>
       <c r="AA7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1635,79 +1662,82 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" t="s">
-        <v>56</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="W8" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="X8" t="s">
+        <v>13</v>
       </c>
       <c r="Y8" t="s">
         <v>13</v>
       </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1718,28 +1748,28 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>12</v>
@@ -1748,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>12</v>
@@ -1760,37 +1790,40 @@
         <v>13</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="X9" t="s">
+        <v>13</v>
       </c>
       <c r="Y9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -1801,28 +1834,28 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>12</v>
@@ -1831,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>12</v>
@@ -1843,37 +1876,40 @@
         <v>13</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
       </c>
       <c r="Y10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -1884,79 +1920,82 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="X11" t="s">
+        <v>13</v>
       </c>
       <c r="Y11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1967,79 +2006,82 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="AB12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -2050,40 +2092,40 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>13</v>
@@ -2092,37 +2134,40 @@
         <v>13</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W13" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="X13" t="s">
+        <v>13</v>
       </c>
       <c r="Y13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -2133,40 +2178,40 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>13</v>
@@ -2175,37 +2220,40 @@
         <v>13</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W14" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>13</v>
       </c>
       <c r="Y14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2216,19 +2264,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A629CB-5D60-43E2-9350-568723598546}">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="25" max="25" width="26" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -2257,99 +2314,102 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" t="s">
-        <v>68</v>
-      </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" t="s">
-        <v>77</v>
-      </c>
       <c r="W1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s">
         <v>35</v>
       </c>
-      <c r="X1" t="s">
-        <v>36</v>
-      </c>
       <c r="Y1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
       <c r="AC1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
@@ -2358,63 +2418,66 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="Z2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -2423,22 +2486,22 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>11</v>
@@ -2447,22 +2510,22 @@
         <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>13</v>
@@ -2471,39 +2534,42 @@
         <v>14</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="AA3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -2512,22 +2578,22 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>11</v>
@@ -2536,63 +2602,66 @@
         <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Y4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>16</v>
+        <v>84</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="AA4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -2601,22 +2670,22 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>11</v>
@@ -2625,10 +2694,10 @@
         <v>12</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>11</v>
@@ -2640,7 +2709,7 @@
         <v>13</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>13</v>
@@ -2649,39 +2718,42 @@
         <v>14</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="AA5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -2690,22 +2762,22 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>11</v>
@@ -2714,63 +2786,66 @@
         <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U6" t="s">
         <v>14</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -2779,22 +2854,22 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>11</v>
@@ -2803,179 +2878,185 @@
         <v>12</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="Q7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" t="s">
         <v>84</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="s">
         <v>85</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="Y8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="AA8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>12</v>
@@ -2984,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>12</v>
@@ -2996,75 +3077,78 @@
         <v>13</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="AA9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>12</v>
@@ -3073,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>12</v>
@@ -3085,354 +3169,366 @@
         <v>13</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="AA10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="P11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="AA11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" t="s">
-        <v>84</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U13" t="s">
-        <v>84</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>13</v>
@@ -3441,37 +3537,40 @@
         <v>13</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>16</v>
+        <v>136</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="AA14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>139</v>
+        <v>15</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\eclipse\IPM\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A3FCC-B460-498E-99E4-7F9AE12361C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4447A12C-293F-434B-B622-9C8749F84D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceName" sheetId="1" r:id="rId1"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1688C-0C26-4DFF-B71F-83B25D02CB03}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1200,7 @@
         <v>55</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>33</v>
@@ -2266,7 +2266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A629CB-5D60-43E2-9350-568723598546}">
   <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Z9" sqref="Z9:Z14"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\eclipse\IPM\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4447A12C-293F-434B-B622-9C8749F84D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656DCC57-0D29-4B2E-99EE-034D5592902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A629CB-5D60-43E2-9350-568723598546}">
   <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9:Z14"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/utilities/Data.xlsx
+++ b/src/main/java/utilities/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\eclipse\IPM\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656DCC57-0D29-4B2E-99EE-034D5592902B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD138DD4-1B8D-46DB-833D-479450707F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{55C0C6BC-8E47-487D-8964-ECEE054DEE17}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceName" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="160">
   <si>
     <t>Sl.no</t>
   </si>
@@ -241,12 +241,6 @@
     <t>DiskSizeValue(UsedWhenScalingTypeIsNotSetAsNullAndVMSIsSelectedAsCustom)</t>
   </si>
   <si>
-    <t>2-12</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
     <t>lead2=admin,lead3=user,Pradeep=user,karthik=admin,lead1=user,lead1=user,test1=admin</t>
   </si>
   <si>
-    <t>4-6</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -491,16 +482,58 @@
   </si>
   <si>
     <t>lead2=admin,lesad3=user,Pradesep=user</t>
+  </si>
+  <si>
+    <t>Rocky Linux 8.8 (CLI)</t>
+  </si>
+  <si>
+    <t>lead2=admin</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>CentOS Stream 8 (GUI)</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -945,10 +978,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,10 +989,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,10 +1011,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,7 +1025,7 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,10 +1033,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,10 +1044,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -1038,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1688C-0C26-4DFF-B71F-83B25D02CB03}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,22 +1129,22 @@
         <v>66</v>
       </c>
       <c r="O1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
         <v>71</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>73</v>
       </c>
       <c r="R1" t="s">
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U1" t="s">
         <v>34</v>
@@ -1123,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y1" t="s">
         <v>19</v>
@@ -1146,13 +1179,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -1173,10 +1206,10 @@
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>12</v>
@@ -1206,7 +1239,7 @@
         <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="X2" t="s">
         <v>13</v>
@@ -1215,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="Z2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>26</v>
@@ -1283,7 +1316,7 @@
         <v>14</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>13</v>
@@ -1292,7 +1325,7 @@
         <v>33</v>
       </c>
       <c r="W3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X3" t="s">
         <v>13</v>
@@ -1387,7 +1420,7 @@
         <v>15</v>
       </c>
       <c r="Z4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>30</v>
@@ -1455,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>13</v>
@@ -1464,7 +1497,7 @@
         <v>33</v>
       </c>
       <c r="W5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X5" t="s">
         <v>13</v>
@@ -1479,7 +1512,7 @@
         <v>30</v>
       </c>
       <c r="AB5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1517,13 +1550,13 @@
         <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>13</v>
@@ -1532,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>13</v>
@@ -1541,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>13</v>
@@ -1550,7 +1583,7 @@
         <v>33</v>
       </c>
       <c r="W6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X6" t="s">
         <v>13</v>
@@ -1559,13 +1592,13 @@
         <v>13</v>
       </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1582,7 +1615,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1603,13 +1636,13 @@
         <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>15</v>
@@ -1618,16 +1651,16 @@
         <v>15</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>13</v>
@@ -1636,7 +1669,7 @@
         <v>33</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s">
         <v>13</v>
@@ -1645,13 +1678,13 @@
         <v>13</v>
       </c>
       <c r="Z7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AB7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1662,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1686,7 +1719,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>32</v>
@@ -1695,7 +1728,7 @@
         <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>15</v>
@@ -1704,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>13</v>
@@ -1713,7 +1746,7 @@
         <v>54</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>15</v>
@@ -1731,13 +1764,13 @@
         <v>13</v>
       </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AB8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1748,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1769,7 +1802,7 @@
         <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>12</v>
@@ -1778,7 +1811,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>12</v>
@@ -1799,7 +1832,7 @@
         <v>54</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>13</v>
@@ -1817,13 +1850,13 @@
         <v>15</v>
       </c>
       <c r="Z9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AB9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -1834,13 +1867,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1855,7 +1888,7 @@
         <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>12</v>
@@ -1864,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>12</v>
@@ -1885,7 +1918,7 @@
         <v>54</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>13</v>
@@ -1903,13 +1936,13 @@
         <v>15</v>
       </c>
       <c r="Z10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AB10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -1920,7 +1953,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -1929,7 +1962,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>42</v>
@@ -1941,19 +1974,19 @@
         <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>15</v>
@@ -1968,10 +2001,10 @@
         <v>13</v>
       </c>
       <c r="S11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>15</v>
@@ -1989,13 +2022,13 @@
         <v>15</v>
       </c>
       <c r="Z11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -2006,13 +2039,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -2027,19 +2060,19 @@
         <v>28</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>15</v>
@@ -2054,10 +2087,10 @@
         <v>13</v>
       </c>
       <c r="S12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>13</v>
@@ -2066,7 +2099,7 @@
         <v>33</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="X12" t="s">
         <v>13</v>
@@ -2075,13 +2108,13 @@
         <v>15</v>
       </c>
       <c r="Z12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -2092,13 +2125,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -2113,10 +2146,10 @@
         <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>26</v>
@@ -2125,7 +2158,7 @@
         <v>26</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>13</v>
@@ -2134,16 +2167,16 @@
         <v>13</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>13</v>
@@ -2161,13 +2194,13 @@
         <v>15</v>
       </c>
       <c r="Z13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AB13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -2178,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -2199,19 +2232,19 @@
         <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>13</v>
@@ -2226,10 +2259,10 @@
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>13</v>
@@ -2238,7 +2271,7 @@
         <v>33</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X14" t="s">
         <v>13</v>
@@ -2247,13 +2280,13 @@
         <v>15</v>
       </c>
       <c r="Z14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AB14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2266,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A629CB-5D60-43E2-9350-568723598546}">
   <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,22 +2368,22 @@
         <v>66</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
         <v>71</v>
-      </c>
-      <c r="S1" t="s">
-        <v>73</v>
       </c>
       <c r="T1" t="s">
         <v>29</v>
       </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
         <v>34</v>
@@ -2362,7 +2395,7 @@
         <v>16</v>
       </c>
       <c r="Z1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AA1" t="s">
         <v>19</v>
@@ -2391,13 +2424,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -2418,10 +2451,10 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>12</v>
@@ -2451,7 +2484,7 @@
         <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="s">
         <v>15</v>
@@ -2466,7 +2499,7 @@
         <v>26</v>
       </c>
       <c r="AD2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -2501,7 +2534,7 @@
         <v>49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>11</v>
@@ -2534,7 +2567,7 @@
         <v>14</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>13</v>
@@ -2558,7 +2591,7 @@
         <v>30</v>
       </c>
       <c r="AD3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -2608,7 +2641,7 @@
         <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>13</v>
@@ -2623,10 +2656,10 @@
         <v>13</v>
       </c>
       <c r="U4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>15</v>
@@ -2635,7 +2668,7 @@
         <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>15</v>
@@ -2644,13 +2677,13 @@
         <v>15</v>
       </c>
       <c r="AB4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AD4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -2673,13 +2706,13 @@
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
@@ -2694,13 +2727,13 @@
         <v>12</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>13</v>
@@ -2718,7 +2751,7 @@
         <v>14</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>15</v>
@@ -2727,22 +2760,22 @@
         <v>33</v>
       </c>
       <c r="Y5" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="s">
         <v>15</v>
       </c>
       <c r="AB5" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AD5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -2765,13 +2798,13 @@
         <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
@@ -2786,13 +2819,13 @@
         <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>15</v>
@@ -2801,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>15</v>
@@ -2810,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>15</v>
@@ -2831,10 +2864,10 @@
         <v>21</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="AD6" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -2842,10 +2875,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -2857,13 +2890,13 @@
         <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
@@ -2878,13 +2911,13 @@
         <v>12</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>15</v>
@@ -2893,40 +2926,40 @@
         <v>15</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>15</v>
       </c>
       <c r="AA7" t="s">
         <v>13</v>
       </c>
       <c r="AB7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="AD7" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2934,28 +2967,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
@@ -2967,25 +3000,25 @@
         <v>11</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>13</v>
@@ -2994,7 +3027,7 @@
         <v>54</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>15</v>
@@ -3003,7 +3036,7 @@
         <v>33</v>
       </c>
       <c r="Y8" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>15</v>
@@ -3012,13 +3045,13 @@
         <v>13</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AD8" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -3026,28 +3059,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
@@ -3056,19 +3089,19 @@
         <v>28</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>13</v>
@@ -3086,16 +3119,16 @@
         <v>54</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y9" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>15</v>
@@ -3104,13 +3137,13 @@
         <v>15</v>
       </c>
       <c r="AB9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AD9" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -3118,28 +3151,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
@@ -3148,19 +3181,19 @@
         <v>28</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>13</v>
@@ -3178,10 +3211,10 @@
         <v>54</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>33</v>
@@ -3196,13 +3229,13 @@
         <v>15</v>
       </c>
       <c r="AB10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AD10" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -3213,13 +3246,13 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -3228,10 +3261,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
@@ -3240,19 +3273,19 @@
         <v>28</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>15</v>
@@ -3267,10 +3300,10 @@
         <v>13</v>
       </c>
       <c r="U11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>15</v>
@@ -3288,13 +3321,13 @@
         <v>15</v>
       </c>
       <c r="AB11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AD11" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -3302,25 +3335,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>48</v>
@@ -3332,19 +3365,19 @@
         <v>28</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>15</v>
@@ -3359,19 +3392,19 @@
         <v>13</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>15</v>
@@ -3380,13 +3413,13 @@
         <v>15</v>
       </c>
       <c r="AB12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AD12" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -3394,25 +3427,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>48</v>
@@ -3424,19 +3457,19 @@
         <v>28</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>13</v>
@@ -3445,25 +3478,25 @@
         <v>13</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y13" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>15</v>
@@ -3472,13 +3505,13 @@
         <v>15</v>
       </c>
       <c r="AB13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="AD13" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -3486,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -3495,19 +3528,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>27</v>
@@ -3516,19 +3549,19 @@
         <v>28</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>13</v>
@@ -3543,19 +3576,19 @@
         <v>13</v>
       </c>
       <c r="U14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>15</v>
@@ -3564,16 +3597,17 @@
         <v>15</v>
       </c>
       <c r="AB14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AD14" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>